--- a/license.xlsx
+++ b/license.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matka\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8863138e69c67576/Projekte/Datahunter/License/datahunter_license/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80CA3512-D027-408D-8F1F-D885DEFAD5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{80CA3512-D027-408D-8F1F-D885DEFAD5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7878BC2E-0FB5-4A30-AD03-5D2D267066AE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{E73852FC-569D-4DD7-B537-3E3D9B6C59F5}"/>
   </bookViews>
@@ -409,7 +409,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,7 +430,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>56290</v>
+        <v>59942</v>
       </c>
     </row>
   </sheetData>

--- a/license.xlsx
+++ b/license.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8863138e69c67576/Projekte/Datahunter/License/datahunter_license/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{80CA3512-D027-408D-8F1F-D885DEFAD5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7878BC2E-0FB5-4A30-AD03-5D2D267066AE}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{80CA3512-D027-408D-8F1F-D885DEFAD5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D160828-8D90-4967-923C-3CE140C5A639}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{E73852FC-569D-4DD7-B537-3E3D9B6C59F5}"/>
   </bookViews>
@@ -409,7 +409,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,7 +430,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>59942</v>
+        <v>56290</v>
       </c>
     </row>
   </sheetData>

--- a/license.xlsx
+++ b/license.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8863138e69c67576/Projekte/Datahunter/License/datahunter_license/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{80CA3512-D027-408D-8F1F-D885DEFAD5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D160828-8D90-4967-923C-3CE140C5A639}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{80CA3512-D027-408D-8F1F-D885DEFAD5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBAB6C15-2D26-4E55-BB52-81FA4F5D8DBC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{E73852FC-569D-4DD7-B537-3E3D9B6C59F5}"/>
   </bookViews>
@@ -430,7 +430,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>56290</v>
+        <v>44967</v>
       </c>
     </row>
   </sheetData>

--- a/license.xlsx
+++ b/license.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8863138e69c67576/Projekte/Datahunter/License/datahunter_license/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{80CA3512-D027-408D-8F1F-D885DEFAD5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBAB6C15-2D26-4E55-BB52-81FA4F5D8DBC}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{80CA3512-D027-408D-8F1F-D885DEFAD5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75E4A0B1-CE4C-4E53-A904-0AAD6EA19BE0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{E73852FC-569D-4DD7-B537-3E3D9B6C59F5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Hardware-ID</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>S36SNWAH859775Z</t>
+  </si>
+  <si>
+    <t>S36SNWAH859775X</t>
   </si>
 </sst>
 </file>
@@ -406,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E5EAB6-659E-41C6-A16D-3CAF330AAB3D}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,6 +436,14 @@
         <v>44967</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>46064</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/license.xlsx
+++ b/license.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8863138e69c67576/Projekte/Datahunter/License/datahunter_license/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{80CA3512-D027-408D-8F1F-D885DEFAD5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75E4A0B1-CE4C-4E53-A904-0AAD6EA19BE0}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{80CA3512-D027-408D-8F1F-D885DEFAD5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88226114-4E2A-47C5-9B9C-0ACE5EC8A90D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{E73852FC-569D-4DD7-B537-3E3D9B6C59F5}"/>
+    <workbookView xWindow="23025" yWindow="2025" windowWidth="12540" windowHeight="20520" xr2:uid="{E73852FC-569D-4DD7-B537-3E3D9B6C59F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>Hardware-ID</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>S36SNWAH859775Z</t>
-  </si>
-  <si>
-    <t>S36SNWAH859775X</t>
   </si>
 </sst>
 </file>
@@ -412,7 +409,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,7 +435,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>46064</v>

--- a/license.xlsx
+++ b/license.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8863138e69c67576/Projekte/Datahunter/License/datahunter_license/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{80CA3512-D027-408D-8F1F-D885DEFAD5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88226114-4E2A-47C5-9B9C-0ACE5EC8A90D}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{80CA3512-D027-408D-8F1F-D885DEFAD5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09F2CA84-D92F-4753-9B27-3ADCB5D11B68}"/>
   <bookViews>
-    <workbookView xWindow="23025" yWindow="2025" windowWidth="12540" windowHeight="20520" xr2:uid="{E73852FC-569D-4DD7-B537-3E3D9B6C59F5}"/>
+    <workbookView xWindow="23025" yWindow="480" windowWidth="12540" windowHeight="20520" xr2:uid="{E73852FC-569D-4DD7-B537-3E3D9B6C59F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,7 +430,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>44967</v>
+        <v>46063</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>46064</v>
+        <v>44603</v>
       </c>
     </row>
   </sheetData>

--- a/license.xlsx
+++ b/license.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8863138e69c67576/Projekte/Datahunter/License/datahunter_license/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{80CA3512-D027-408D-8F1F-D885DEFAD5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09F2CA84-D92F-4753-9B27-3ADCB5D11B68}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{80CA3512-D027-408D-8F1F-D885DEFAD5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21CD247D-DB7A-4674-BF39-A48D3869F355}"/>
   <bookViews>
     <workbookView xWindow="23025" yWindow="480" windowWidth="12540" windowHeight="20520" xr2:uid="{E73852FC-569D-4DD7-B537-3E3D9B6C59F5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Hardware-ID</t>
   </si>
@@ -409,7 +409,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,12 +434,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>44603</v>
-      </c>
+      <c r="B3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/license.xlsx
+++ b/license.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8863138e69c67576/Projekte/Datahunter/License/datahunter_license/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{80CA3512-D027-408D-8F1F-D885DEFAD5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21CD247D-DB7A-4674-BF39-A48D3869F355}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{80CA3512-D027-408D-8F1F-D885DEFAD5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16541CF9-B6D7-44BC-B5D8-ACF77A47B38C}"/>
   <bookViews>
-    <workbookView xWindow="23025" yWindow="480" windowWidth="12540" windowHeight="20520" xr2:uid="{E73852FC-569D-4DD7-B537-3E3D9B6C59F5}"/>
+    <workbookView xWindow="23025" yWindow="480" windowWidth="19230" windowHeight="20520" xr2:uid="{E73852FC-569D-4DD7-B537-3E3D9B6C59F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>Hardware-ID</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>S36SNWAH859775Z</t>
+  </si>
+  <si>
+    <t>S36SNWAH859775t</t>
   </si>
 </sst>
 </file>
@@ -406,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E5EAB6-659E-41C6-A16D-3CAF330AAB3D}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,14 +430,30 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>46063</v>
+        <v>46061</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>46062</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>46063</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/license.xlsx
+++ b/license.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8863138e69c67576/Projekte/Datahunter/License/datahunter_license/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{80CA3512-D027-408D-8F1F-D885DEFAD5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16541CF9-B6D7-44BC-B5D8-ACF77A47B38C}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{80CA3512-D027-408D-8F1F-D885DEFAD5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCDAA5C5-A2A5-4FBA-862F-473FB80791D3}"/>
   <bookViews>
     <workbookView xWindow="23025" yWindow="480" windowWidth="19230" windowHeight="20520" xr2:uid="{E73852FC-569D-4DD7-B537-3E3D9B6C59F5}"/>
   </bookViews>
@@ -412,7 +412,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +449,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>46063</v>
+        <v>54829</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">

--- a/license.xlsx
+++ b/license.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8863138e69c67576/Projekte/Datahunter/License/datahunter_license/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{80CA3512-D027-408D-8F1F-D885DEFAD5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCDAA5C5-A2A5-4FBA-862F-473FB80791D3}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{80CA3512-D027-408D-8F1F-D885DEFAD5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3773E8F6-BE4E-4CC5-B582-3BFE8663F915}"/>
   <bookViews>
     <workbookView xWindow="23025" yWindow="480" windowWidth="19230" windowHeight="20520" xr2:uid="{E73852FC-569D-4DD7-B537-3E3D9B6C59F5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Hardware-ID</t>
   </si>
@@ -47,7 +47,7 @@
     <t>S36SNWAH859775Z</t>
   </si>
   <si>
-    <t>S36SNWAH859775t</t>
+    <t>002538B28101C704</t>
   </si>
 </sst>
 </file>
@@ -409,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E5EAB6-659E-41C6-A16D-3CAF330AAB3D}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,27 +433,19 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>46061</v>
+        <v>54827</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>46062</v>
+        <v>54829</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>54829</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
+      <c r="B4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
